--- a/data/trans_bre/VUL_MENTALCOM-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/VUL_MENTALCOM-Estudios-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,98</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>20,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>132,68%</t>
+          <t>61,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>107,84%</t>
+          <t>78,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>83,58%</t>
+          <t>146,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>79,17%</t>
+          <t>108,96%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 8,83</t>
+          <t>-0,27; 6,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,98; 30,83</t>
+          <t>3,93; 13,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,82; 12,56</t>
+          <t>3,31; 9,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,82</t>
+          <t>9,24; 31,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,36; 263,45</t>
+          <t>-4,15; 153,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,23; 228,99</t>
+          <t>24,92; 164,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,87; 142,38</t>
+          <t>56,03; 301,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,2; 163,64</t>
+          <t>30,52; 218,29</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>5,4</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>10,83</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,31</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,96</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>65,96%</t>
+          <t>72,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>62,46%</t>
+          <t>121,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>64,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>81,69%</t>
+          <t>62,29%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,42</t>
+          <t>1,58; 4,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,66; 15,38</t>
+          <t>1,18; 8,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,96</t>
+          <t>1,17; 4,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,14</t>
+          <t>6,41; 15,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,12; 130,03</t>
+          <t>32,99; 123,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,43; 101,59</t>
+          <t>35,98; 307,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>56,04; 153,42</t>
+          <t>22,86; 126,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,75; 126,15</t>
+          <t>32,35; 101,46</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>12,33</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>77,35%</t>
+          <t>93,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>14,59%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>65,1%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>111,77%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>36,59%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>119,35%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,35</t>
+          <t>0,81; 4,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 16,47</t>
+          <t>-2,55; 4,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,62</t>
+          <t>-0,58; 2,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,36</t>
+          <t>8,04; 16,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 250,11</t>
+          <t>19,41; 223,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>58,35; 178,96</t>
+          <t>-33,36; 104,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 115,04</t>
+          <t>-23,44; 229,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>41,17; 273,62</t>
+          <t>58,67; 180,57</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,66</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>12,69</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>84,56%</t>
+          <t>74,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>101,44%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>80,69%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>81,78%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>93,48%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>85,67%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 4,32</t>
+          <t>1,89; 4,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,43; 15,79</t>
+          <t>2,37; 8,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 7,24</t>
+          <t>1,73; 4,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,85</t>
+          <t>9,39; 16,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,9; 132,12</t>
+          <t>40,78; 116,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,97; 111,95</t>
+          <t>42,99; 195,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>61,79; 129,75</t>
+          <t>39,59; 129,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>54,39; 124,4</t>
+          <t>52,7; 112,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/VUL_MENTALCOM-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/VUL_MENTALCOM-Estudios-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>61,83%</t>
+          <t>87,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 6,79</t>
+          <t>2,04; 8,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 13,59</t>
+          <t>3,53; 13,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,24; 31,86</t>
+          <t>8,34; 31,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 153,13</t>
+          <t>24,74; 195,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,92; 164,96</t>
+          <t>23,39; 163,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,52; 218,29</t>
+          <t>29,52; 237,75</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>72,64%</t>
+          <t>77,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,36</t>
+          <t>1,71; 4,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 8,72</t>
+          <t>1,41; 8,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,41; 15,47</t>
+          <t>6,35; 15,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,99; 123,35</t>
+          <t>38,06; 131,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,98; 307,7</t>
+          <t>33,87; 267,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,35; 101,46</t>
+          <t>32,73; 96,79</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>72,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,22</t>
+          <t>0,18; 3,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 4,23</t>
+          <t>-2,56; 3,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,04; 16,76</t>
+          <t>8,11; 17,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,41; 223,76</t>
+          <t>4,34; 176,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,36; 104,42</t>
+          <t>-34,36; 94,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>58,67; 180,57</t>
+          <t>63,38; 196,62</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>74,2%</t>
+          <t>79,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,09</t>
+          <t>2,05; 4,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 8,02</t>
+          <t>2,38; 7,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,39; 16,02</t>
+          <t>9,53; 16,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,78; 116,93</t>
+          <t>48,77; 120,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,99; 195,13</t>
+          <t>41,36; 185,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,7; 112,51</t>
+          <t>56,44; 117,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/VUL_MENTALCOM-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/VUL_MENTALCOM-Estudios-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>9,98</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20,61</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6,0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>5,03</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,84</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>20,61</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>94,37%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>108,96%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>146,25%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>87,7%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>78,85%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>146,25%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>108,96%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>4,92; 14,42</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8,34; 31,31</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3,31; 9,34</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>2,04; 8,36</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,53; 13,51</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3,31; 9,34</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>8,34; 31,31</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>34,17; 181,83</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>29,52; 237,75</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>56,03; 301,41</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>24,74; 195,12</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>23,39; 163,7</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>56,03; 301,41</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>29,52; 237,75</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>6,38</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10,83</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>2,94</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,4</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>10,83</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>116,53%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>62,29%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>64,8%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>77,2%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>121,7%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>64,8%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>62,29%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>4,36; 8,44</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6,35; 15,03</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 4,34</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>1,71; 4,27</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,41; 8,51</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 4,34</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>6,35; 15,03</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>63,09; 182,11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>32,73; 96,79</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22,86; 126,83</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>38,06; 131,91</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>33,87; 267,2</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>22,86; 126,83</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>32,73; 96,79</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12,33</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,94</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>12,33</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>14,31%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>111,77%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>65,1%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>72,19%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>14,59%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>65,1%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>111,77%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-2,57; 3,64</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8,11; 17,08</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-0,58; 2,82</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>0,18; 3,33</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 3,86</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,58; 2,82</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>8,11; 17,08</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-34,17; 88,51</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>63,38; 196,62</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-23,44; 229,73</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>4,34; 176,91</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-34,36; 94,08</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-23,44; 229,73</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>63,38; 196,62</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6,2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12,69</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>2,99</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,55</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>12,69</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>99,92%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>81,78%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>80,69%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>79,82%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>101,44%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>80,69%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>81,78%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>4,42; 7,85</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9,53; 16,18</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1,73; 4,04</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>2,05; 4,05</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 7,98</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 4,04</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>9,53; 16,18</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>63,36; 149,22</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>56,44; 117,14</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>39,59; 129,8</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>48,77; 120,77</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>41,36; 185,79</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>39,59; 129,8</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>56,44; 117,14</t>
         </is>
       </c>
     </row>
